--- a/Records.xlsx
+++ b/Records.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\PythonProjects\Books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD420DB5-C50F-4311-87EC-B7DCD0F0A622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D9E22C-4F1A-4E40-B822-B355A64363E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1968" yWindow="1632" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,30 +336,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C3"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>